--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/M.RojoL2/Examen-Final-S3-trinome-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A367E0D3-2024-2642-916F-20468721A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93F75A-2FCB-524D-B76C-39C9F4CCBA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Détails1" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="95">
   <si>
     <t>Avancement</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>Détails pou for Somme de Estimation - Qui : RAKOTO</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>header.php</t>
+  </si>
+  <si>
+    <t>footer.php</t>
   </si>
 </sst>
 </file>
@@ -505,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -528,6 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +559,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="AIRS" refreshedDate="46070.58693888889" refreshedVersion="8" recordCount="19" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="AIRS" refreshedDate="46070.604266203707" refreshedVersion="8" recordCount="19" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:L20" sheet="liste des taches"/>
   </cacheSource>
@@ -831,7 +844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Recap" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Recap" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField name="Module" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -1281,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+    <sheetView zoomScale="170" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1311,7 @@
       </c>
       <c r="B1" s="2">
         <f>'avancement projet'!D2</f>
-        <v>0.75357142857142856</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2350,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2431,7 +2444,10 @@
         <f>G2-H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="22">
+        <f>(H2/(H2+I2))</f>
+        <v>1</v>
+      </c>
       <c r="K2" s="16" t="s">
         <v>44</v>
       </c>
@@ -2462,7 +2478,10 @@
         <f t="shared" ref="I3:I51" si="0">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="22">
+        <f t="shared" ref="J3:J54" si="1">(H3/(H3+I3))</f>
+        <v>1</v>
+      </c>
       <c r="K3" s="16" t="s">
         <v>44</v>
       </c>
@@ -2495,7 +2514,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K4" s="16" t="s">
         <v>46</v>
       </c>
@@ -2516,7 +2538,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
@@ -2545,7 +2567,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K6" s="16" t="s">
         <v>44</v>
       </c>
@@ -2576,7 +2601,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K7" s="16" t="s">
         <v>44</v>
       </c>
@@ -2609,7 +2637,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K8" s="16" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2661,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -2659,7 +2690,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K10" s="16" t="s">
         <v>44</v>
       </c>
@@ -2690,7 +2724,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="K11" s="16" t="s">
         <v>44</v>
       </c>
@@ -2723,7 +2760,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
       <c r="K12" s="16" t="s">
         <v>46</v>
       </c>
@@ -2744,7 +2784,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -2773,7 +2813,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
       <c r="K14" s="16" t="s">
         <v>58</v>
       </c>
@@ -2804,7 +2847,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
       <c r="K15" s="16" t="s">
         <v>58</v>
       </c>
@@ -2837,7 +2883,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="K16" s="16" t="s">
         <v>58</v>
       </c>
@@ -2858,7 +2907,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
@@ -2887,7 +2936,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K18" s="16" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +2970,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
       <c r="K19" s="16" t="s">
         <v>44</v>
       </c>
@@ -2949,7 +3004,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K20" s="16" t="s">
         <v>46</v>
       </c>
@@ -2970,7 +3028,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
     </row>
@@ -2987,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
     </row>
@@ -3016,7 +3074,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K23" s="16" t="s">
         <v>58</v>
       </c>
@@ -3047,7 +3108,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K24" s="16" t="s">
         <v>44</v>
       </c>
@@ -3068,7 +3132,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -3097,7 +3161,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K26" s="16" t="s">
         <v>46</v>
       </c>
@@ -3128,7 +3195,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K27" s="16" t="s">
         <v>44</v>
       </c>
@@ -3149,7 +3219,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -3178,7 +3248,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K29" s="16" t="s">
         <v>58</v>
       </c>
@@ -3209,7 +3282,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
       <c r="K30" s="16" t="s">
         <v>46</v>
       </c>
@@ -3230,7 +3306,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -3259,7 +3335,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J32" s="16"/>
+      <c r="J32" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K32" s="16" t="s">
         <v>58</v>
       </c>
@@ -3290,7 +3369,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
       <c r="K33" s="16" t="s">
         <v>58</v>
       </c>
@@ -3323,7 +3405,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J34" s="16"/>
+      <c r="J34" s="22">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="K34" s="16" t="s">
         <v>58</v>
       </c>
@@ -3344,7 +3429,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="16"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
@@ -3373,7 +3458,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="16"/>
+      <c r="J36" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K36" s="16" t="s">
         <v>58</v>
       </c>
@@ -3404,7 +3492,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J37" s="16"/>
+      <c r="J37" s="22">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
       <c r="K37" s="16" t="s">
         <v>58</v>
       </c>
@@ -3435,7 +3526,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J38" s="16"/>
+      <c r="J38" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
       <c r="K38" s="16" t="s">
         <v>58</v>
       </c>
@@ -3456,7 +3550,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="16"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
@@ -3485,7 +3579,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J40" s="16"/>
+      <c r="J40" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K40" s="16" t="s">
         <v>46</v>
       </c>
@@ -3516,7 +3613,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J41" s="16"/>
+      <c r="J41" s="22">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
       <c r="K41" s="16" t="s">
         <v>46</v>
       </c>
@@ -3547,7 +3647,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J42" s="16"/>
+      <c r="J42" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
       <c r="K42" s="16" t="s">
         <v>46</v>
       </c>
@@ -3578,7 +3681,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J43" s="16"/>
+      <c r="J43" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K43" s="16" t="s">
         <v>46</v>
       </c>
@@ -3609,7 +3715,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J44" s="16"/>
+      <c r="J44" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K44" s="16" t="s">
         <v>46</v>
       </c>
@@ -3640,7 +3749,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J45" s="16"/>
+      <c r="J45" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K45" s="16" t="s">
         <v>58</v>
       </c>
@@ -3671,7 +3783,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J46" s="16"/>
+      <c r="J46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="K46" s="16" t="s">
         <v>46</v>
       </c>
@@ -3702,7 +3817,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J47" s="16"/>
+      <c r="J47" s="22">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
       <c r="K47" s="16" t="s">
         <v>44</v>
       </c>
@@ -3733,7 +3851,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="16"/>
+      <c r="J48" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="K48" s="16" t="s">
         <v>44</v>
       </c>
@@ -3754,7 +3875,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="16"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
     </row>
@@ -3783,7 +3904,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J50" s="16"/>
+      <c r="J50" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
       <c r="K50" s="16" t="s">
         <v>87</v>
       </c>
@@ -3811,10 +3935,13 @@
         <v>10</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="0"/>
+        <f>G51-H51</f>
         <v>5</v>
       </c>
-      <c r="J51" s="16"/>
+      <c r="J51" s="22">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K51" s="16" t="s">
         <v>87</v>
       </c>
@@ -3832,37 +3959,81 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="B53" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="16">
+        <v>20</v>
+      </c>
+      <c r="H53" s="16">
+        <v>15</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" ref="I52:I54" si="2">G53-H53</f>
+        <v>5</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="16">
+        <v>20</v>
+      </c>
+      <c r="H54" s="16">
+        <v>20</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
@@ -4847,7 +5018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4879,19 +5052,19 @@
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>SUM('liste des taches'!G2:G329)</f>
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="B2" s="3">
         <f>SUM('liste des taches'!H2:H329)</f>
-        <v>1055</v>
+        <v>1090</v>
       </c>
       <c r="C2" s="3">
         <f>SUM('liste des taches'!I2:I329)</f>
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D2" s="7">
         <f>(B2/(B2+C2))</f>
-        <v>0.75357142857142856</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="E2" s="8">
         <f>((B2+C2)-A2)/A2</f>
@@ -4901,7 +5074,7 @@
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3">
         <f>C2/60</f>
-        <v>5.75</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/M.RojoL2/Examen-Final-S3-trinome-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93F75A-2FCB-524D-B76C-39C9F4CCBA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6C68E-F1E0-7D49-8D52-278F7555B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Détails1" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="24" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -537,10 +537,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="AIRS" refreshedDate="46070.604266203707" refreshedVersion="8" recordCount="19" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="AIRS" refreshedDate="46070.632858217592" refreshedVersion="8" recordCount="19" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:L20" sheet="liste des taches"/>
   </cacheSource>
@@ -585,8 +585,8 @@
     <cacheField name="Reste à faire" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="15"/>
     </cacheField>
-    <cacheField name="Avancement" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    <cacheField name="Avancement" numFmtId="10">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="1"/>
     </cacheField>
     <cacheField name="Qui" numFmtId="0">
       <sharedItems containsBlank="1" count="6">
@@ -620,7 +620,7 @@
     <n v="30"/>
     <n v="30"/>
     <n v="0"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -632,7 +632,7 @@
     <n v="30"/>
     <n v="30"/>
     <n v="0"/>
-    <m/>
+    <n v="1"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -644,7 +644,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="1"/>
     <s v="OK"/>
   </r>
@@ -668,7 +668,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -680,7 +680,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -692,7 +692,7 @@
     <n v="15"/>
     <n v="15"/>
     <n v="0"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
     <s v="OK"/>
   </r>
@@ -716,7 +716,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -728,7 +728,7 @@
     <n v="45"/>
     <n v="40"/>
     <n v="5"/>
-    <m/>
+    <n v="0.88888888888888884"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -740,7 +740,7 @@
     <n v="20"/>
     <n v="15"/>
     <n v="5"/>
-    <m/>
+    <n v="0.75"/>
     <x v="1"/>
     <s v="OK"/>
   </r>
@@ -764,7 +764,7 @@
     <n v="30"/>
     <n v="15"/>
     <n v="15"/>
-    <m/>
+    <n v="0.5"/>
     <x v="3"/>
     <s v="OK"/>
   </r>
@@ -776,7 +776,7 @@
     <n v="45"/>
     <n v="35"/>
     <n v="10"/>
-    <m/>
+    <n v="0.77777777777777779"/>
     <x v="3"/>
     <s v="OK"/>
   </r>
@@ -788,7 +788,7 @@
     <n v="30"/>
     <n v="25"/>
     <n v="5"/>
-    <m/>
+    <n v="0.83333333333333337"/>
     <x v="3"/>
     <s v="OK"/>
   </r>
@@ -812,7 +812,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -824,7 +824,7 @@
     <n v="45"/>
     <n v="35"/>
     <n v="10"/>
-    <m/>
+    <n v="0.77777777777777779"/>
     <x v="0"/>
     <s v="OK"/>
   </r>
@@ -836,7 +836,7 @@
     <n v="30"/>
     <n v="20"/>
     <n v="10"/>
-    <m/>
+    <n v="0.66666666666666663"/>
     <x v="1"/>
     <s v="OK"/>
   </r>
@@ -844,7 +844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Recap" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Recap" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField name="Module" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -1327,7 +1327,7 @@
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>270</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>95</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="21">
         <v>105</v>
       </c>
     </row>
@@ -1351,13 +1351,13 @@
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>470</v>
       </c>
     </row>
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="125" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2444,7 +2444,7 @@
         <f>G2-H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="19">
         <f>(H2/(H2+I2))</f>
         <v>1</v>
       </c>
@@ -2475,10 +2475,10 @@
         <v>30</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I51" si="0">G3-H3</f>
+        <f t="shared" ref="I3:I50" si="0">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J54" si="1">(H3/(H3+I3))</f>
         <v>1</v>
       </c>
@@ -2514,7 +2514,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2538,7 +2538,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
@@ -2567,7 +2567,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2601,7 +2601,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2637,7 +2637,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2661,7 +2661,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
@@ -2690,7 +2690,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2724,7 +2724,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
@@ -2760,7 +2760,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -2784,7 +2784,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
@@ -2813,7 +2813,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2847,7 +2847,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
@@ -2883,7 +2883,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
@@ -2907,7 +2907,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
@@ -2936,7 +2936,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2970,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
@@ -3004,7 +3004,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3028,7 +3028,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
     </row>
@@ -3045,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
     </row>
@@ -3074,7 +3074,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3108,7 +3108,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3132,7 +3132,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="22"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -3161,7 +3161,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3195,7 +3195,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3219,7 +3219,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="22"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
@@ -3248,7 +3248,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3282,7 +3282,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3306,7 +3306,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
@@ -3335,7 +3335,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3369,7 +3369,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3405,7 +3405,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="19">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
@@ -3429,7 +3429,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="22"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
@@ -3458,7 +3458,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3492,7 +3492,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="19">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
@@ -3526,7 +3526,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -3550,7 +3550,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
@@ -3579,7 +3579,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3613,7 +3613,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="19">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -3647,7 +3647,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -3681,7 +3681,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3715,7 +3715,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3749,7 +3749,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3783,7 +3783,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="19">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
@@ -3817,7 +3817,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="19">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3851,7 +3851,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3875,7 +3875,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="22"/>
+      <c r="J49" s="19"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
     </row>
@@ -3904,7 +3904,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -3938,7 +3938,7 @@
         <f>G51-H51</f>
         <v>5</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="19">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="22"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
     </row>
@@ -3985,10 +3985,10 @@
         <v>15</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" ref="I52:I54" si="2">G53-H53</f>
+        <f t="shared" ref="I53:I54" si="2">G53-H53</f>
         <v>5</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -4018,13 +4018,14 @@
         <v>20</v>
       </c>
       <c r="H54" s="16">
+        <f>20</f>
         <v>20</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/M.RojoL2/Examen-Final-S3-trinome-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6C68E-F1E0-7D49-8D52-278F7555B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6737A5D-5FF8-B142-B74C-6EF2C61F15C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Détails1" sheetId="5" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView zoomScale="170" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2363,7 +2363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="125" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView topLeftCell="C27" zoomScale="125" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -6088,7 +6088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
